--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1336.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1336.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.097778455206495</v>
+        <v>1.092947483062744</v>
       </c>
       <c r="B1">
-        <v>2.596452162973061</v>
+        <v>2.307811498641968</v>
       </c>
       <c r="C1">
-        <v>4.634263868865865</v>
+        <v>9.660909652709961</v>
       </c>
       <c r="D1">
-        <v>2.473303562168993</v>
+        <v>2.257486581802368</v>
       </c>
       <c r="E1">
-        <v>1.201801612165936</v>
+        <v>1.294302701950073</v>
       </c>
     </row>
   </sheetData>
